--- a/DeepSAD_tf/saved_models/model.xlsx
+++ b/DeepSAD_tf/saved_models/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_documents\shenlou\DeepSAD_tf\saved_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5E4A0B-9792-4042-80D5-11DB680DF8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F1262-B22B-43CD-93CF-7E9E62311F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>model_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,6 +430,38 @@
   </si>
   <si>
     <t>异常，eta=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_06_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常，eta=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不使用预训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_06_2</t>
+  </si>
+  <si>
+    <t>用于查看预训练loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_06_3</t>
+  </si>
+  <si>
+    <t>03_06_4</t>
+  </si>
+  <si>
+    <t>03_06_5</t>
+  </si>
+  <si>
+    <t>reqdim=4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1686,13 +1718,63 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="L65" t="s">
+        <v>108</v>
+      </c>
+      <c r="N65" t="s">
+        <v>109</v>
+      </c>
+      <c r="P65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="L66" t="s">
+        <v>108</v>
+      </c>
+      <c r="N66" t="s">
+        <v>111</v>
+      </c>
+      <c r="P66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L67" t="s">
+        <v>108</v>
+      </c>
+      <c r="N67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeepSAD_tf/saved_models/model.xlsx
+++ b/DeepSAD_tf/saved_models/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_documents\shenlou\DeepSAD_tf\saved_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F1262-B22B-43CD-93CF-7E9E62311F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CE8616-1307-47E1-A44C-ECCBF7B40D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="135">
   <si>
     <t>model_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,76 @@
   </si>
   <si>
     <t>reqdim=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不使用预训练，进一步验证AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_06_6</t>
+  </si>
+  <si>
+    <t>用于查看3*3（CNN_0）预训练loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预训练loss更低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_07_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优设置，查看训练Loss趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_07_2</t>
+  </si>
+  <si>
+    <t>异常，eta=1，dim=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_07_3</t>
+  </si>
+  <si>
+    <t>异常，eta=1，dim=16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_07_4</t>
+  </si>
+  <si>
+    <t>异常，eta=1，dim=64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_07_5</t>
+  </si>
+  <si>
+    <t>异常，eta=1，dim=128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常沉积厉害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_07_6</t>
+  </si>
+  <si>
+    <t>异常，eta=1，dim=256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常，eta=1，dim=32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,16 +882,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:S551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1718,7 +1789,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>107</v>
       </c>
@@ -1735,7 +1806,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>110</v>
       </c>
@@ -1752,10 +1823,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="C67" s="1">
+        <v>0.71609999999999996</v>
+      </c>
       <c r="L67" t="s">
         <v>108</v>
       </c>
@@ -1763,18 +1837,640 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="L68" t="s">
+        <v>108</v>
+      </c>
+      <c r="N68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C69" s="1">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.9395</v>
+      </c>
+      <c r="L69" t="s">
+        <v>108</v>
+      </c>
+      <c r="N69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="L70" t="s">
+        <v>108</v>
+      </c>
+      <c r="N70" t="s">
+        <v>118</v>
+      </c>
+      <c r="R70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="L71" t="s">
+        <v>134</v>
+      </c>
+      <c r="N71" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>122</v>
+      </c>
+      <c r="R71">
+        <v>140942</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="L72" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>122</v>
+      </c>
+      <c r="R72">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="L73" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>122</v>
+      </c>
+      <c r="R73">
+        <v>141945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="L74" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>122</v>
+      </c>
+      <c r="R74">
+        <v>150943</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="L75" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>122</v>
+      </c>
+      <c r="R75">
+        <v>152745</v>
+      </c>
+      <c r="S75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="L76" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>122</v>
+      </c>
+      <c r="R76">
+        <v>155057</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
